--- a/jifen.xlsx
+++ b/jifen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>昵称</t>
   </si>
@@ -65,57 +65,60 @@
     <t>避实就虚呵呵</t>
   </si>
   <si>
+    <t>成员加入后新喵总次数：</t>
+  </si>
+  <si>
     <t>裁决神使秋</t>
   </si>
   <si>
+    <t>机器矿工</t>
+  </si>
+  <si>
+    <t>tangyuan儿</t>
+  </si>
+  <si>
+    <t>不灭的光辉</t>
+  </si>
+  <si>
     <t>注意！表格每周更新一次，可向室长催更</t>
   </si>
   <si>
-    <t>机器矿工</t>
+    <t>七字故事多又多</t>
   </si>
   <si>
     <t>室长个人中心网址：</t>
   </si>
   <si>
-    <t>tangyuan儿</t>
+    <t>XMLJ</t>
   </si>
   <si>
     <t>https://shequ.codemao.cn/user/11952313</t>
   </si>
   <si>
-    <t>不灭的光辉</t>
-  </si>
-  <si>
-    <t>七字故事多又多</t>
+    <t>S毅颗紫米</t>
+  </si>
+  <si>
+    <t>电车233</t>
   </si>
   <si>
     <t>积分规则见：</t>
   </si>
   <si>
-    <t>XMLJ</t>
+    <t>zeta泽编程备用号</t>
   </si>
   <si>
     <t>https://azkb-docs.github.io/azkb-shop-jfgz.html</t>
   </si>
   <si>
-    <t>S毅颗紫米</t>
-  </si>
-  <si>
-    <t>电车233</t>
+    <t>飓风古堡战神</t>
+  </si>
+  <si>
+    <t>小小董5nkZ</t>
   </si>
   <si>
     <t>如果室员更改昵称不会被注意到，需要联系室长更改</t>
   </si>
   <si>
-    <t>zeta泽编程备用号</t>
-  </si>
-  <si>
-    <t>飓风古堡战神</t>
-  </si>
-  <si>
-    <t>小小董5nkZ</t>
-  </si>
-  <si>
     <t>林曲</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
   </si>
   <si>
     <t>乐观的松鼠ygz</t>
+  </si>
+  <si>
+    <t>一无所有大狗狗</t>
   </si>
 </sst>
 </file>
@@ -834,8 +840,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:H28" totalsRowShown="0">
-  <autoFilter ref="A1:H28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:H29" totalsRowShown="0">
+  <autoFilter ref="A1:H29"/>
   <tableColumns count="8">
     <tableColumn id="1" name="昵称"/>
     <tableColumn id="2" name="ID"/>
@@ -1137,10 +1143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1200,6 +1206,12 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="J2">
         <f>SUM(D2:D10000)</f>
         <v>10</v>
@@ -1221,6 +1233,12 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
@@ -1244,12 +1262,15 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="J4">
         <f>SUM(E2:E10000)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1262,10 +1283,19 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>3437806</v>
@@ -1276,8 +1306,15 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>17</v>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>SUM(G2:G10000)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1293,13 +1330,19 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1330527374</v>
@@ -1310,13 +1353,20 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>SUM(H2:H10000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>1304796930</v>
@@ -1327,10 +1377,19 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>761649790</v>
@@ -1341,13 +1400,19 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>1404981678</v>
@@ -1358,13 +1423,19 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>27</v>
       </c>
       <c r="B12">
         <v>4244395</v>
@@ -1375,10 +1446,16 @@
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>11958891</v>
@@ -1389,13 +1466,19 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>30</v>
       </c>
       <c r="B14">
         <v>721314516</v>
@@ -1406,8 +1489,17 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -1420,8 +1512,14 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1434,10 +1532,19 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>496428788</v>
@@ -1448,10 +1555,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>1818513907</v>
@@ -1462,10 +1575,16 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>238121302</v>
@@ -1476,10 +1595,16 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>1948552774</v>
@@ -1490,10 +1615,16 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>1695915163</v>
@@ -1504,10 +1635,16 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>929277514</v>
@@ -1518,10 +1655,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>9755202</v>
@@ -1532,10 +1675,16 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>660656660</v>
@@ -1546,10 +1695,16 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>868677459</v>
@@ -1560,10 +1715,16 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>189594980</v>
@@ -1574,10 +1735,16 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>520365245</v>
@@ -1588,10 +1755,16 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>1809679982</v>
@@ -1602,11 +1775,31 @@
       <c r="E28">
         <v>0</v>
       </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>15803082</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId2" display="https://shequ.codemao.cn/user/11952313"/>
-    <hyperlink ref="J11" r:id="rId3" display="https://azkb-docs.github.io/azkb-shop-jfgz.html"/>
+    <hyperlink ref="J11" r:id="rId2" display="https://shequ.codemao.cn/user/11952313"/>
+    <hyperlink ref="J14" r:id="rId3" display="https://azkb-docs.github.io/azkb-shop-jfgz.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/jifen.xlsx
+++ b/jifen.xlsx
@@ -5,7 +5,7 @@
   <fileSharing userName="Administrator" reservationPassword="E19E"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>昵称</t>
   </si>
@@ -53,12 +53,15 @@
     <t>e……</t>
   </si>
   <si>
-    <t>副室长</t>
+    <t>轮值副室长</t>
   </si>
   <si>
     <t>成员总积分：</t>
   </si>
   <si>
+    <t>Shawn666666</t>
+  </si>
+  <si>
     <t>你好吧789</t>
   </si>
   <si>
@@ -140,7 +143,7 @@
     <t>天美工作室_白给W</t>
   </si>
   <si>
-    <t>XX某路人</t>
+    <t>XX某锅铲我是锅铲粉</t>
   </si>
   <si>
     <t>vyang</t>
@@ -155,7 +158,19 @@
     <t>乐观的松鼠ygz</t>
   </si>
   <si>
-    <t>一无所有大狗狗</t>
+    <t>一无B</t>
+  </si>
+  <si>
+    <t>WINDOW_Wallfacer</t>
+  </si>
+  <si>
+    <t>唐门宗主唐三（原名一位答题君（小雪糕x）</t>
+  </si>
+  <si>
+    <t>乐观的蓝雀qynZ</t>
+  </si>
+  <si>
+    <t>真诚相待5_9H</t>
   </si>
 </sst>
 </file>
@@ -163,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -186,6 +201,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,29 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,18 +244,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,24 +283,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,15 +299,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,21 +330,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,187 +345,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,36 +536,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,17 +557,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,22 +607,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,145 +644,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -840,8 +855,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:H29" totalsRowShown="0">
-  <autoFilter ref="A1:H29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:H34" totalsRowShown="0">
+  <autoFilter ref="A1:H34"/>
   <tableColumns count="8">
     <tableColumn id="1" name="昵称"/>
     <tableColumn id="2" name="ID"/>
@@ -1143,15 +1158,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="39.6363636363636" customWidth="1"/>
     <col min="2" max="2" width="16.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="10.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="12.3636363636364" customWidth="1"/>
@@ -1213,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>SUM(D2:D10000)</f>
+        <f>SUM(D2:D10001)</f>
         <v>10</v>
       </c>
     </row>
@@ -1243,31 +1258,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>6815252</v>
+        <v>11409118</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
-      </c>
-      <c r="J4">
-        <f>SUM(E2:E10000)</f>
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1275,46 +1286,49 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>175279410</v>
+        <v>6815252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>16</v>
+      <c r="J5">
+        <f>SUM(E2:E10001)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>175279410</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6">
-        <v>3437806</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>SUM(G2:G10000)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1322,7 +1336,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>763109533</v>
+        <v>3437806</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1336,8 +1350,9 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>16</v>
+      <c r="J7">
+        <f>SUM(G2:G10001)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1345,7 +1360,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1330527374</v>
+        <v>763109533</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1359,9 +1374,8 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <f>SUM(H2:H10000)</f>
-        <v>0</v>
+      <c r="J8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1369,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>1304796930</v>
+        <v>1330527374</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1383,82 +1397,86 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>21</v>
+      <c r="J9">
+        <f>SUM(H2:H10001)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>1304796930</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10">
-        <v>761649790</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>761649790</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
         <v>1404981678</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
-        <v>4244395</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13">
-        <v>11958891</v>
+        <v>4244395</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1471,95 +1489,95 @@
       </c>
       <c r="H13">
         <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>11958891</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
         <v>721314516</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
-        <v>1457939603</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16">
+        <v>1457939603</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
         <v>980840184</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>34</v>
-      </c>
-      <c r="B17">
-        <v>496428788</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1567,7 +1585,7 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>1818513907</v>
+        <v>496428788</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1587,7 +1605,7 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>238121302</v>
+        <v>1818513907</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1607,7 +1625,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>1948552774</v>
+        <v>238121302</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1627,7 +1645,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>1695915163</v>
+        <v>1948552774</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1647,7 +1665,7 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>929277514</v>
+        <v>1695915163</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1667,7 +1685,7 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>9755202</v>
+        <v>929277514</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1687,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>660656660</v>
+        <v>9755202</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1707,7 +1725,7 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>868677459</v>
+        <v>660656660</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1727,7 +1745,7 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <v>189594980</v>
+        <v>868677459</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1747,7 +1765,7 @@
         <v>44</v>
       </c>
       <c r="B27">
-        <v>520365245</v>
+        <v>189594980</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1767,7 +1785,7 @@
         <v>45</v>
       </c>
       <c r="B28">
-        <v>1809679982</v>
+        <v>520365245</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1782,24 +1800,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>46</v>
       </c>
       <c r="B29">
+        <v>1809679982</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
         <v>15803082</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>486247430</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>1152726606</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>335826274</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <v>103037482</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J11" r:id="rId2" display="https://shequ.codemao.cn/user/11952313"/>
-    <hyperlink ref="J14" r:id="rId3" display="https://azkb-docs.github.io/azkb-shop-jfgz.html"/>
+    <hyperlink ref="J12" r:id="rId2" display="https://shequ.codemao.cn/user/11952313"/>
+    <hyperlink ref="J15" r:id="rId3" display="https://azkb-docs.github.io/azkb-shop-jfgz.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/jifen.xlsx
+++ b/jifen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>昵称</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>真诚相待5_9H</t>
+  </si>
+  <si>
+    <t>未来的编程猫</t>
   </si>
 </sst>
 </file>
@@ -180,8 +183,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,6 +203,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -208,29 +219,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,24 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,8 +271,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,16 +308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +317,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,19 +354,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,157 +510,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +546,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,27 +570,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,21 +586,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +619,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,16 +659,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,123 +677,126 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,8 +861,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:H34" totalsRowShown="0">
-  <autoFilter ref="A1:H34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:H35" totalsRowShown="0">
+  <autoFilter ref="A1:H35"/>
   <tableColumns count="8">
     <tableColumn id="1" name="昵称"/>
     <tableColumn id="2" name="ID"/>
@@ -1158,10 +1164,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1219,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1246,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1295,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1305,7 +1311,7 @@
       </c>
       <c r="J5">
         <f>SUM(E2:E10001)</f>
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1389,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1459,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1533,7 +1539,7 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1548,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1651,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1751,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1891,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1911,12 +1917,32 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <v>204646519</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
     </row>
